--- a/Data Files/C735.xlsx
+++ b/Data Files/C735.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sprint1\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gv.vignesh/Downloads/WGR-Android-Automation/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927AB615-DCA1-4C13-950F-3B5885DA80FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC11913-7728-D443-918C-9D4D136091B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>password</t>
   </si>
   <si>
-    <t>0225109tm@wg.com</t>
+    <t>03205178TM@WG.COM</t>
   </si>
 </sst>
 </file>
@@ -354,15 +354,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,7 +370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -380,7 +380,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F373F00E-0F48-4B6B-A074-0940D16AB1B2}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F807F4F4-D91B-D549-8EAA-9BA90FBF5A46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
